--- a/data/ratings_1.xlsx
+++ b/data/ratings_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\GitHub\steel-bridge-data-analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15648,14 +15648,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15693,7 +15686,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -16013,17 +16006,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45F9644-AA93-417A-AACC-0D0BBEC699FA}">
   <dimension ref="A1:BF201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A201" sqref="A201:BF201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>5148</v>
       </c>
       <c r="B1" s="2" t="s">
